--- a/data/societies.xlsx
+++ b/data/societies.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cofinlay\Dropbox (Personal)\Jobs\CV and Publications\CV\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud\Dropbox (Personal)\Jobs\CV and Publications\CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7473AEAC-37E9-4828-AF71-CFD64FFE3773}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C1FDAC-C66A-4835-B4AD-514D4D609B95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5230" yWindow="11700" windowWidth="13970" windowHeight="15930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="26640" yWindow="1860" windowWidth="20805" windowHeight="19140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>soc</t>
   </si>
@@ -33,9 +33,6 @@
     <t>STTAR Data Committee (COVID SPP)</t>
   </si>
   <si>
-    <t>Single Cell TCD working group</t>
-  </si>
-  <si>
     <t>Finanical services end user committee</t>
   </si>
   <si>
@@ -49,6 +46,12 @@
   </si>
   <si>
     <t>Irish Society of Immunology</t>
+  </si>
+  <si>
+    <t>Single Cell TCD core facility working group (Chair)</t>
+  </si>
+  <si>
+    <t>TCD advocacy group for  the improvement of core facilities (Chair, in formation)</t>
   </si>
 </sst>
 </file>
@@ -366,47 +369,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/data/societies.xlsx
+++ b/data/societies.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud\Dropbox (Personal)\Jobs\CV and Publications\CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C1FDAC-C66A-4835-B4AD-514D4D609B95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BEC11F8-2798-44C3-B67F-596AC9B787A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26640" yWindow="1860" windowWidth="20805" windowHeight="19140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22275" yWindow="4530" windowWidth="22020" windowHeight="10845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>soc</t>
   </si>
@@ -51,7 +51,10 @@
     <t>Single Cell TCD core facility working group (Chair)</t>
   </si>
   <si>
-    <t>TCD advocacy group for  the improvement of core facilities (Chair, in formation)</t>
+    <t>Myeloid Network</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLOCI -Flow cytometery analysis committee </t>
   </si>
 </sst>
 </file>
@@ -372,7 +375,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -413,8 +416,11 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/data/societies.xlsx
+++ b/data/societies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud\Dropbox (Personal)\Jobs\CV and Publications\CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BEC11F8-2798-44C3-B67F-596AC9B787A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C58DF1-683B-4E24-B402-F0631543DC3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22275" yWindow="4530" windowWidth="22020" windowHeight="10845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18735" yWindow="2970" windowWidth="36405" windowHeight="10845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,17 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>soc</t>
   </si>
   <si>
-    <t>STTAR Data Committee (COVID SPP)</t>
-  </si>
-  <si>
-    <t>Finanical services end user committee</t>
-  </si>
-  <si>
     <t>TCD Committees</t>
   </si>
   <si>
@@ -54,17 +48,36 @@
     <t>Myeloid Network</t>
   </si>
   <si>
-    <t xml:space="preserve">FLOCI -Flow cytometery analysis committee </t>
+    <t>Post-Doc Representative for comparative medicine unit (CMU; animal research unit) executive committee (2016)</t>
+  </si>
+  <si>
+    <t>FLOCI -Flow cytometery analysis committee (2021-Present)</t>
+  </si>
+  <si>
+    <t>Covid Strategic partnership (SFI Funded) (2021-present)</t>
+  </si>
+  <si>
+    <t>STTAR Data Committee (2021-present)</t>
+  </si>
+  <si>
+    <t>STTAR Covid-19 M-Bio LIMS (clincial data access)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -90,8 +103,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -372,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -388,39 +402,49 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/data/societies.xlsx
+++ b/data/societies.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud\Dropbox (Personal)\Jobs\CV and Publications\CV\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/conorisco/Dropbox (Personal)/Jobs/CV and Publications/CV/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C58DF1-683B-4E24-B402-F0631543DC3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F60D19A-1C52-7943-94F2-F26FB373B041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18735" yWindow="2970" windowWidth="36405" windowHeight="10845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="620" yWindow="11940" windowWidth="34560" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,16 +51,16 @@
     <t>Post-Doc Representative for comparative medicine unit (CMU; animal research unit) executive committee (2016)</t>
   </si>
   <si>
-    <t>FLOCI -Flow cytometery analysis committee (2021-Present)</t>
-  </si>
-  <si>
-    <t>Covid Strategic partnership (SFI Funded) (2021-present)</t>
-  </si>
-  <si>
-    <t>STTAR Data Committee (2021-present)</t>
-  </si>
-  <si>
-    <t>STTAR Covid-19 M-Bio LIMS (clincial data access)</t>
+    <t>FLOCI - Flow cytometry analysis committee (2021-Present)</t>
+  </si>
+  <si>
+    <t>STTAR Data Committee (2021-2023)</t>
+  </si>
+  <si>
+    <t>Covid Strategic partnership (SFI Funded) (2021-2023)</t>
+  </si>
+  <si>
+    <t>STTAR Covid-19 M-Bio LIMS (clinical data access, 2022)</t>
   </si>
 </sst>
 </file>
@@ -388,16 +388,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="36" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -405,15 +405,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -421,7 +421,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -429,7 +429,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -437,12 +437,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>

--- a/data/societies.xlsx
+++ b/data/societies.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/conorisco/Dropbox (Personal)/Jobs/CV and Publications/CV/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F60D19A-1C52-7943-94F2-F26FB373B041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56629A0-7A79-4245-8950-99CEE19FAFC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="620" yWindow="11940" windowWidth="34560" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8580" yWindow="7080" windowWidth="34560" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>soc</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>STTAR Covid-19 M-Bio LIMS (clinical data access, 2022)</t>
+  </si>
+  <si>
+    <t>Trinity Omics (Acedemic Co-director and Committee Chair)</t>
+  </si>
+  <si>
+    <t>TTMI Data Science Core</t>
+  </si>
+  <si>
+    <t>Trinity Single Cell Omics Analysis Workshop</t>
   </si>
 </sst>
 </file>
@@ -386,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -447,6 +456,21 @@
         <v>11</v>
       </c>
     </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
